--- a/progetto/final_report.xlsx
+++ b/progetto/final_report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Environment</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>hive</t>
+  </si>
+  <si>
+    <t>Mapreduce</t>
+  </si>
+  <si>
+    <t>local_emi</t>
+  </si>
+  <si>
+    <t>local_gio</t>
+  </si>
+  <si>
+    <t>emr</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Hive</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -100,6 +118,18 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -117,6 +147,7095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Mapreduce</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_emi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$B$50:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0.00">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="00.00">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="00.00">
+                  <c:v>40.55</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="00.00">
+                  <c:v>75.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_gio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$C$50:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$D$50:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841523"/>
+        <c:axId val="2140841524"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841523"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841524"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841524"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841523"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="3176587" y="9224962"/>
+      <a:ext cx="4552949" cy="2719387"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Spark-core</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_emi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$B$58:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_gio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$C$58:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$D$58:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841537"/>
+        <c:axId val="2140841538"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841538"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841538"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841537"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="8053387" y="9224962"/>
+      <a:ext cx="4552949" cy="2905124"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Hive</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_emi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$B$66:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>00.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$C$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_gio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$C$66:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1'!$D$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 1'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 1'!$D$66:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841539"/>
+        <c:axId val="2140841540"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841539"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841540"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841540"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="00.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841539"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5834062" y="6148387"/>
+      <a:ext cx="4652962" cy="2881312"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Mapreduce</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_emi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$B$50:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_gio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$C$50:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>506.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$50:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$D$50:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425.897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841561"/>
+        <c:axId val="2140841562"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841561"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841562"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841562"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841561"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="3257549" y="9205912"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Spark</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$B$57</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$58:$A$62</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$B$58:$B$62</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$C$57</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$58:$A$62</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$C$58:$C$62</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$D$57</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$58:$A$62</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$D$58:$D$62</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841551"/>
+        <c:axId val="2140841552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841552"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="8143874" y="9205912"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Hive</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_emi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$B$66:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>00.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$C$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>local_gio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$C$66:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$D$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Task 2'!$A$66:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2'!$D$66:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="2140841559"/>
+        <c:axId val="2140841560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841560"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="00.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5953124" y="6300787"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="358027338" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3176587" y="9224962"/>
+        <a:ext cx="4552949" cy="2719387"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1209605142" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8053387" y="9224962"/>
+        <a:ext cx="4552949" cy="2905124"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="671656307" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5834062" y="6148387"/>
+        <a:ext cx="4652962" cy="2881312"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1363490731" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3257549" y="9205912"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="743553080" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8143874" y="9205912"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1544599300" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5953124" y="6300787"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,7 +7731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1268,18 +8387,345 @@
         <v>42.340000000000003</v>
       </c>
     </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11">
+        <f>D2</f>
+        <v>3.1400000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <f>D7</f>
+        <v>2.3300000000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <f>D12</f>
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="11">
+        <f>D3</f>
+        <v>5.0499999999999998</v>
+      </c>
+      <c r="C51" s="1">
+        <f>D8</f>
+        <v>3.3500000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <f>D13</f>
+        <v>30.050000000000001</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11">
+        <f>D4</f>
+        <v>12.119999999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <f>D9</f>
+        <v>5.3099999999999996</v>
+      </c>
+      <c r="D52" s="1">
+        <f>D14</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53" s="11">
+        <f>D5</f>
+        <v>40.549999999999997</v>
+      </c>
+      <c r="C53" s="1">
+        <f>D10</f>
+        <v>19.370000000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <f>D15</f>
+        <v>106.61</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54">
+        <v>200</v>
+      </c>
+      <c r="B54" s="11">
+        <f>D6</f>
+        <v>75.579999999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <f>D11</f>
+        <v>35.409999999999997</v>
+      </c>
+      <c r="D54" s="1">
+        <f>D16</f>
+        <v>187.49000000000001</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <f>D17</f>
+        <v>6.5999999999999996</v>
+      </c>
+      <c r="C58">
+        <f>D22</f>
+        <v>4.4900000000000002</v>
+      </c>
+      <c r="D58" s="1">
+        <f>D27</f>
+        <v>27.870000000000001</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
+        <f>D18</f>
+        <v>6.6200000000000001</v>
+      </c>
+      <c r="C59">
+        <f>D23</f>
+        <v>5.6699999999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <f>D28</f>
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="6">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3">
+        <f>D19</f>
+        <v>14.15</v>
+      </c>
+      <c r="C60">
+        <f>D24</f>
+        <v>7.9400000000000004</v>
+      </c>
+      <c r="D60" s="1">
+        <f>D29</f>
+        <v>31.960000000000001</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="6">
+        <v>100</v>
+      </c>
+      <c r="B61" s="3">
+        <f>D20</f>
+        <v>32.439999999999998</v>
+      </c>
+      <c r="C61">
+        <f>D25</f>
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D61" s="1">
+        <f>D30</f>
+        <v>38.409999999999997</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="6">
+        <v>200</v>
+      </c>
+      <c r="B62" s="3">
+        <f>D21</f>
+        <v>60.280000000000001</v>
+      </c>
+      <c r="C62">
+        <f>D26</f>
+        <v>25.100000000000001</v>
+      </c>
+      <c r="D62" s="1">
+        <f>D31</f>
+        <v>48.710000000000001</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="6">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5">
+        <f>D32</f>
+        <v>13.710000000000001</v>
+      </c>
+      <c r="C66">
+        <f>D37</f>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D66" s="1">
+        <f>D42</f>
+        <v>28.300000000000001</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="6">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5">
+        <f>D33</f>
+        <v>17.289999999999999</v>
+      </c>
+      <c r="C67">
+        <f>D38</f>
+        <v>9.3100000000000005</v>
+      </c>
+      <c r="D67" s="1">
+        <f>D43</f>
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="6">
+        <v>20</v>
+      </c>
+      <c r="B68" s="5">
+        <f>D34</f>
+        <v>22.579999999999998</v>
+      </c>
+      <c r="C68">
+        <f>D39</f>
+        <v>11.380000000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <f>D44</f>
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="6">
+        <v>100</v>
+      </c>
+      <c r="B69" s="5">
+        <f>D35</f>
+        <v>46.789999999999999</v>
+      </c>
+      <c r="C69">
+        <f>D40</f>
+        <v>21.370000000000001</v>
+      </c>
+      <c r="D69" s="1">
+        <f>D45</f>
+        <v>36.579999999999998</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="6">
+        <v>200</v>
+      </c>
+      <c r="B70" s="5">
+        <f>D36</f>
+        <v>81.769999999999996</v>
+      </c>
+      <c r="C70">
+        <f>D41</f>
+        <v>36.719999999999999</v>
+      </c>
+      <c r="D70" s="1">
+        <f>D46</f>
+        <v>42.340000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +8789,7 @@
       <c r="C4" s="6">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="13">
         <v>100.56999999999999</v>
       </c>
     </row>
@@ -1357,7 +8803,7 @@
       <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>516.97000000000003</v>
       </c>
     </row>
@@ -1371,7 +8817,7 @@
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="14">
         <v>1009.01</v>
       </c>
     </row>
@@ -1567,7 +9013,7 @@
       <c r="C20" s="6">
         <v>100</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="13">
         <v>204.75999999999999</v>
       </c>
     </row>
@@ -1581,7 +9027,7 @@
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="13">
         <v>417.10000000000002</v>
       </c>
     </row>
@@ -1932,6 +9378,339 @@
         <v>200</v>
       </c>
       <c r="D46" s="1">
+        <v>17.760000000000002</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="6">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
+        <f>D2</f>
+        <v>8.0199999999999996</v>
+      </c>
+      <c r="C50" s="1">
+        <f>D7</f>
+        <v>4.3399999999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <f>D12</f>
+        <v>30.84</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="6">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
+        <f>D3</f>
+        <v>26.100000000000001</v>
+      </c>
+      <c r="C51" s="1">
+        <f>D8</f>
+        <v>13.359999999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <f>D13</f>
+        <v>35.979999999999997</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="6">
+        <v>20</v>
+      </c>
+      <c r="B52" s="3">
+        <f>D4</f>
+        <v>100.56999999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <f>D9</f>
+        <v>46.380000000000003</v>
+      </c>
+      <c r="D52" s="1">
+        <f>D14</f>
+        <v>56.890000000000001</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="6">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <f>D5</f>
+        <v>516.97000000000003</v>
+      </c>
+      <c r="C53" s="1">
+        <f>D10</f>
+        <v>243.68000000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <f>D15</f>
+        <v>228.63</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="6">
+        <v>200</v>
+      </c>
+      <c r="B54" s="3">
+        <f>D6</f>
+        <v>1009.01</v>
+      </c>
+      <c r="C54" s="1">
+        <f>D11</f>
+        <v>506.67000000000002</v>
+      </c>
+      <c r="D54" s="1">
+        <f>D16</f>
+        <v>425.89699999999999</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <f>D17</f>
+        <v>8.8900000000000006</v>
+      </c>
+      <c r="C58" s="6">
+        <f>D22</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D58" s="1">
+        <f>D27</f>
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
+        <f>D18</f>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="C59" s="6">
+        <f>D23</f>
+        <v>7.0599999999999996</v>
+      </c>
+      <c r="D59" s="1">
+        <f>D28</f>
+        <v>38.119999999999997</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="6">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3">
+        <f>D19</f>
+        <v>49.82</v>
+      </c>
+      <c r="C60" s="6">
+        <f>D24</f>
+        <v>10.25</v>
+      </c>
+      <c r="D60" s="1">
+        <f>D29</f>
+        <v>67.359999999999999</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="6">
+        <v>100</v>
+      </c>
+      <c r="B61" s="3">
+        <f>D20</f>
+        <v>204.75999999999999</v>
+      </c>
+      <c r="C61" s="6">
+        <f>D25</f>
+        <v>44.840000000000003</v>
+      </c>
+      <c r="D61" s="1">
+        <f>D30</f>
+        <v>127.29000000000001</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="6">
+        <v>200</v>
+      </c>
+      <c r="B62" s="3">
+        <f>D21</f>
+        <v>417.10000000000002</v>
+      </c>
+      <c r="C62" s="6">
+        <f>D26</f>
+        <v>89.969999999999999</v>
+      </c>
+      <c r="D62" s="1">
+        <f>D31</f>
+        <v>225.02000000000001</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="6">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5">
+        <f>D32</f>
+        <v>10.18</v>
+      </c>
+      <c r="C66" s="6">
+        <f>D37</f>
+        <v>7.1500000000000004</v>
+      </c>
+      <c r="D66" s="1">
+        <f>D42</f>
+        <v>75.829999999999998</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="6">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5">
+        <f>D33</f>
+        <v>11.51</v>
+      </c>
+      <c r="C67" s="6">
+        <f>D38</f>
+        <v>7.3899999999999997</v>
+      </c>
+      <c r="D67" s="1">
+        <f>D43</f>
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="6">
+        <v>20</v>
+      </c>
+      <c r="B68" s="5">
+        <f>D34</f>
+        <v>12.710000000000001</v>
+      </c>
+      <c r="C68" s="6">
+        <f>D39</f>
+        <v>7.0300000000000002</v>
+      </c>
+      <c r="D68" s="1">
+        <f>D44</f>
+        <v>17.129999999999999</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="6">
+        <v>100</v>
+      </c>
+      <c r="B69" s="5">
+        <f>D35</f>
+        <v>12.68</v>
+      </c>
+      <c r="C69" s="6">
+        <f>D40</f>
+        <v>6.9400000000000004</v>
+      </c>
+      <c r="D69" s="1">
+        <f>D45</f>
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="6">
+        <v>200</v>
+      </c>
+      <c r="B70" s="5">
+        <f>D36</f>
+        <v>12.67</v>
+      </c>
+      <c r="C70" s="6">
+        <f>D41</f>
+        <v>7.1200000000000001</v>
+      </c>
+      <c r="D70" s="1">
+        <f>D46</f>
         <v>17.760000000000002</v>
       </c>
     </row>
@@ -1940,5 +9719,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/progetto/final_report.xlsx
+++ b/progetto/final_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Environment</t>
   </si>
@@ -52,13 +52,25 @@
     <t>Mapreduce</t>
   </si>
   <si>
-    <t>local_emi</t>
+    <t>Laptop</t>
   </si>
   <si>
-    <t>local_gio</t>
+    <t>Desktop</t>
   </si>
   <si>
-    <t>emr</t>
+    <t>Emr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Elasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop Elasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emr Elasticity</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Spark</t>
@@ -104,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -118,20 +130,15 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,6 +517,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841523"/>
         <c:axId val="2140841524"/>
       </c:scatterChart>
@@ -578,6 +593,7 @@
         </c:txPr>
         <c:crossAx val="2140841524"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841524"/>
@@ -694,8 +710,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3176587" y="9224962"/>
-      <a:ext cx="4552949" cy="2719387"/>
+      <a:off x="6300786" y="8986836"/>
+      <a:ext cx="4552949" cy="2643187"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1088,6 +1104,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841537"/>
         <c:axId val="2140841538"/>
       </c:scatterChart>
@@ -1156,6 +1180,7 @@
         </c:txPr>
         <c:crossAx val="2140841538"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841538"/>
@@ -1272,8 +1297,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8053387" y="9224962"/>
-      <a:ext cx="4552949" cy="2905124"/>
+      <a:off x="11653836" y="8896349"/>
+      <a:ext cx="4552949" cy="2824162"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1666,6 +1691,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841539"/>
         <c:axId val="2140841540"/>
       </c:scatterChart>
@@ -1734,6 +1767,7 @@
         </c:txPr>
         <c:crossAx val="2140841540"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841540"/>
@@ -1850,8 +1884,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="5834062" y="6148387"/>
-      <a:ext cx="4652962" cy="2881312"/>
+      <a:off x="8253411" y="5314949"/>
+      <a:ext cx="4652962" cy="2805111"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -2254,6 +2288,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841561"/>
         <c:axId val="2140841562"/>
       </c:scatterChart>
@@ -2322,6 +2364,7 @@
         </c:txPr>
         <c:crossAx val="2140841562"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841562"/>
@@ -2438,8 +2481,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3257549" y="9205912"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="5410198" y="8713786"/>
+      <a:ext cx="4565649" cy="2628900"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -2713,6 +2756,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841551"/>
         <c:axId val="2140841552"/>
       </c:scatterChart>
@@ -2779,6 +2830,7 @@
         </c:txPr>
         <c:crossAx val="2140841552"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841552"/>
@@ -2895,8 +2947,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8143874" y="9205912"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="10277473" y="8713786"/>
+      <a:ext cx="4565649" cy="2628900"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -3299,6 +3351,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841559"/>
         <c:axId val="2140841560"/>
       </c:scatterChart>
@@ -3367,6 +3427,7 @@
         </c:txPr>
         <c:crossAx val="2140841560"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841560"/>
@@ -3483,8 +3544,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="5953124" y="6300787"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="7431086" y="5140324"/>
+      <a:ext cx="4564062" cy="2628899"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7040,16 +7101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338135</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7059,8 +7120,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3176587" y="9224962"/>
-        <a:ext cx="4552949" cy="2719387"/>
+        <a:off x="6300786" y="8986836"/>
+        <a:ext cx="4552949" cy="2643187"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7072,16 +7133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>204785</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7091,8 +7152,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8053387" y="9224962"/>
-        <a:ext cx="4552949" cy="2905124"/>
+        <a:off x="11653836" y="8896349"/>
+        <a:ext cx="4552949" cy="2824162"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7104,16 +7165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7123,8 +7184,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5834062" y="6148387"/>
-        <a:ext cx="4652962" cy="2881312"/>
+        <a:off x="8253411" y="5314949"/>
+        <a:ext cx="4652962" cy="2805111"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7141,16 +7202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306386</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593723</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7160,8 +7221,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3257549" y="9205912"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="5410198" y="8713786"/>
+        <a:ext cx="4565649" cy="2628900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7173,16 +7234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284161</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7192,8 +7253,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8143874" y="9205912"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="10277473" y="8713786"/>
+        <a:ext cx="4565649" cy="2628900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7205,16 +7266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493711</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168273</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7224,8 +7285,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5953124" y="6300787"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="7431086" y="5140324"/>
+        <a:ext cx="4564062" cy="2628899"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7731,7 +7792,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7740,7 +7801,10 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="12.8515625"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="10.57421875"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="9.140625"/>
-    <col bestFit="1" min="4" max="4" style="1" width="6.28125"/>
+    <col customWidth="1" min="4" max="4" style="1" width="7.57421875"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="14.57421875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="15.7109375"/>
+    <col bestFit="1" min="7" max="7" width="12.09375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -8388,10 +8452,10 @@
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
@@ -8403,125 +8467,206 @@
       <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="11">
-        <f>D2</f>
+      <c r="B50" s="3">
+        <f t="shared" ref="B50:B54" si="0">D2</f>
         <v>3.1400000000000001</v>
       </c>
       <c r="C50" s="1">
-        <f>D7</f>
+        <f t="shared" ref="C50:C52" si="1">D7</f>
         <v>2.3300000000000001</v>
       </c>
       <c r="D50" s="1">
-        <f>D12</f>
+        <f t="shared" ref="D50:D54" si="2">D12</f>
         <v>32.75</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="11">
-        <f>D3</f>
+      <c r="B51" s="3">
+        <f t="shared" si="0"/>
         <v>5.0499999999999998</v>
       </c>
       <c r="C51" s="1">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>3.3500000000000001</v>
       </c>
       <c r="D51" s="1">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>30.050000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <f>(B51/B50)/(A51/A50)</f>
+        <v>0.321656050955414</v>
+      </c>
+      <c r="F51" s="3">
+        <f>(C51/C50)/(A51/A50)</f>
+        <v>0.28755364806866951</v>
+      </c>
+      <c r="G51" s="3">
+        <f>(D51/D50)/(A51/A50)</f>
+        <v>0.1835114503816794</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52">
         <v>20</v>
       </c>
-      <c r="B52" s="11">
-        <f>D4</f>
+      <c r="B52" s="3">
+        <f t="shared" si="0"/>
         <v>12.119999999999999</v>
       </c>
       <c r="C52" s="1">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>5.3099999999999996</v>
       </c>
       <c r="D52" s="1">
-        <f>D14</f>
+        <f t="shared" si="2"/>
         <v>33</v>
+      </c>
+      <c r="E52" s="3">
+        <f>(B52/B51)/(A52/A51)</f>
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F52" s="3">
+        <f>(C52/C51)/(A52/A51)</f>
+        <v>0.39626865671641787</v>
+      </c>
+      <c r="G52" s="3">
+        <f>(D52/D51)/(A52/A51)</f>
+        <v>0.27454242928452577</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53">
         <v>100</v>
       </c>
-      <c r="B53" s="11">
-        <f>D5</f>
+      <c r="B53" s="3">
+        <f t="shared" si="0"/>
         <v>40.549999999999997</v>
       </c>
       <c r="C53" s="1">
-        <f>D10</f>
+        <f t="shared" ref="C53:C54" si="3">D10</f>
         <v>19.370000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>106.61</v>
+      </c>
+      <c r="E53" s="3">
+        <f>(B53/B52)/(A53/A52)</f>
+        <v>0.66914191419141911</v>
+      </c>
+      <c r="F53" s="3">
+        <f>(C53/C52)/(A53/A52)</f>
+        <v>0.72956685499058394</v>
+      </c>
+      <c r="G53" s="3">
+        <f>(D53/D52)/(A53/A52)</f>
+        <v>0.6461212121212121</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54">
         <v>200</v>
       </c>
-      <c r="B54" s="11">
-        <f>D6</f>
+      <c r="B54" s="3">
+        <f t="shared" si="0"/>
         <v>75.579999999999998</v>
       </c>
       <c r="C54" s="1">
-        <f>D11</f>
+        <f t="shared" si="3"/>
         <v>35.409999999999997</v>
       </c>
       <c r="D54" s="1">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>187.49000000000001</v>
       </c>
+      <c r="E54" s="3">
+        <f>(B54/B53)/(A54/A53)</f>
+        <v>0.93193588162762031</v>
+      </c>
+      <c r="F54" s="3">
+        <f>(C54/C53)/(A54/A53)</f>
+        <v>0.91404233350542063</v>
+      </c>
+      <c r="G54" s="3">
+        <f>(D54/D53)/(A54/A53)</f>
+        <v>0.87932651721226907</v>
+      </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -8529,16 +8674,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f>D17</f>
+        <f t="shared" ref="B58:B62" si="4">D17</f>
         <v>6.5999999999999996</v>
       </c>
       <c r="C58">
-        <f>D22</f>
+        <f t="shared" ref="C58:C62" si="5">D22</f>
         <v>4.4900000000000002</v>
       </c>
       <c r="D58" s="1">
-        <f>D27</f>
+        <f t="shared" ref="D58:D62" si="6">D27</f>
         <v>27.870000000000001</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -8546,16 +8700,28 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <f>D18</f>
+        <f t="shared" si="4"/>
         <v>6.6200000000000001</v>
       </c>
       <c r="C59">
-        <f>D23</f>
+        <f t="shared" si="5"/>
         <v>5.6699999999999999</v>
       </c>
       <c r="D59" s="1">
-        <f>D28</f>
+        <f t="shared" si="6"/>
         <v>27.23</v>
+      </c>
+      <c r="E59" s="3">
+        <f>(B59/B58)/(A59/A58)</f>
+        <v>0.20060606060606062</v>
+      </c>
+      <c r="F59" s="3">
+        <f>(C59/C58)/(A59/A58)</f>
+        <v>0.25256124721603562</v>
+      </c>
+      <c r="G59" s="3">
+        <f>(D59/D58)/(A59/A58)</f>
+        <v>0.19540724793684966</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -8563,16 +8729,28 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
-        <f>D19</f>
+        <f t="shared" si="4"/>
         <v>14.15</v>
       </c>
       <c r="C60">
-        <f>D24</f>
+        <f t="shared" si="5"/>
         <v>7.9400000000000004</v>
       </c>
       <c r="D60" s="1">
-        <f>D29</f>
+        <f t="shared" si="6"/>
         <v>31.960000000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <f>(B60/B59)/(A60/A59)</f>
+        <v>0.53436555891238668</v>
+      </c>
+      <c r="F60" s="3">
+        <f>(C60/C59)/(A60/A59)</f>
+        <v>0.35008818342151676</v>
+      </c>
+      <c r="G60" s="3">
+        <f>(D60/D59)/(A60/A59)</f>
+        <v>0.29342636797649652</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -8580,16 +8758,28 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
-        <f>D20</f>
+        <f t="shared" si="4"/>
         <v>32.439999999999998</v>
       </c>
       <c r="C61">
-        <f>D25</f>
+        <f t="shared" si="5"/>
         <v>18.649999999999999</v>
       </c>
       <c r="D61" s="1">
-        <f>D30</f>
+        <f t="shared" si="6"/>
         <v>38.409999999999997</v>
+      </c>
+      <c r="E61" s="3">
+        <f>(B61/B60)/(A61/A60)</f>
+        <v>0.45851590106007062</v>
+      </c>
+      <c r="F61" s="3">
+        <f>(C61/C60)/(A61/A60)</f>
+        <v>0.46977329974811077</v>
+      </c>
+      <c r="G61" s="3">
+        <f>(D61/D60)/(A61/A60)</f>
+        <v>0.24036295369211511</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -8597,35 +8787,64 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
-        <f>D21</f>
+        <f t="shared" si="4"/>
         <v>60.280000000000001</v>
       </c>
       <c r="C62">
-        <f>D26</f>
+        <f t="shared" si="5"/>
         <v>25.100000000000001</v>
       </c>
       <c r="D62" s="1">
-        <f>D31</f>
+        <f t="shared" si="6"/>
         <v>48.710000000000001</v>
       </c>
+      <c r="E62" s="3">
+        <f>(B62/B61)/(A62/A61)</f>
+        <v>0.92909987669543781</v>
+      </c>
+      <c r="F62" s="3">
+        <f>(C62/C61)/(A62/A61)</f>
+        <v>0.67292225201072398</v>
+      </c>
+      <c r="G62" s="3">
+        <f>(D62/D61)/(A62/A61)</f>
+        <v>0.63407966675344973</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="14.25">
@@ -8633,16 +8852,25 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f>D32</f>
+        <f t="shared" ref="B66:B70" si="7">D32</f>
         <v>13.710000000000001</v>
       </c>
       <c r="C66">
-        <f>D37</f>
+        <f t="shared" ref="C66:C70" si="8">D37</f>
         <v>8.9700000000000006</v>
       </c>
       <c r="D66" s="1">
-        <f>D42</f>
+        <f t="shared" ref="D66:D70" si="9">D42</f>
         <v>28.300000000000001</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="14.25">
@@ -8650,16 +8878,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
-        <f>D33</f>
+        <f t="shared" si="7"/>
         <v>17.289999999999999</v>
       </c>
       <c r="C67">
-        <f>D38</f>
+        <f t="shared" si="8"/>
         <v>9.3100000000000005</v>
       </c>
       <c r="D67" s="1">
-        <f>D43</f>
+        <f t="shared" si="9"/>
         <v>29.93</v>
+      </c>
+      <c r="E67" s="3">
+        <f>(B67/B66)/(A67/A66)</f>
+        <v>0.25222465353756379</v>
+      </c>
+      <c r="F67" s="3">
+        <f>(C67/C66)/(A67/A66)</f>
+        <v>0.20758082497212932</v>
+      </c>
+      <c r="G67" s="3">
+        <f>(D67/D66)/(A67/A66)</f>
+        <v>0.21151943462897527</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -8667,16 +8907,28 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
-        <f>D34</f>
+        <f t="shared" si="7"/>
         <v>22.579999999999998</v>
       </c>
       <c r="C68">
-        <f>D39</f>
+        <f t="shared" si="8"/>
         <v>11.380000000000001</v>
       </c>
       <c r="D68" s="1">
-        <f>D44</f>
+        <f t="shared" si="9"/>
         <v>32.590000000000003</v>
+      </c>
+      <c r="E68" s="3">
+        <f>(B68/B67)/(A68/A67)</f>
+        <v>0.32648930017351069</v>
+      </c>
+      <c r="F68" s="3">
+        <f>(C68/C67)/(A68/A67)</f>
+        <v>0.30558539205155749</v>
+      </c>
+      <c r="G68" s="3">
+        <f>(D68/D67)/(A68/A67)</f>
+        <v>0.27221850985633145</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -8684,16 +8936,28 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
-        <f>D35</f>
+        <f t="shared" si="7"/>
         <v>46.789999999999999</v>
       </c>
       <c r="C69">
-        <f>D40</f>
+        <f t="shared" si="8"/>
         <v>21.370000000000001</v>
       </c>
       <c r="D69" s="1">
-        <f>D45</f>
+        <f t="shared" si="9"/>
         <v>36.579999999999998</v>
+      </c>
+      <c r="E69" s="3">
+        <f>(B69/B68)/(A69/A68)</f>
+        <v>0.41443755535872456</v>
+      </c>
+      <c r="F69" s="3">
+        <f>(C69/C68)/(A69/A68)</f>
+        <v>0.37557117750439367</v>
+      </c>
+      <c r="G69" s="3">
+        <f>(D69/D68)/(A69/A68)</f>
+        <v>0.22448603866216627</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -8701,16 +8965,28 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
-        <f>D36</f>
+        <f t="shared" si="7"/>
         <v>81.769999999999996</v>
       </c>
       <c r="C70">
-        <f>D41</f>
+        <f t="shared" si="8"/>
         <v>36.719999999999999</v>
       </c>
       <c r="D70" s="1">
-        <f>D46</f>
+        <f t="shared" si="9"/>
         <v>42.340000000000003</v>
+      </c>
+      <c r="E70" s="3">
+        <f>(B70/B69)/(A70/A69)</f>
+        <v>0.87379782004701856</v>
+      </c>
+      <c r="F70" s="3">
+        <f>(C70/C69)/(A70/A69)</f>
+        <v>0.85914833879270003</v>
+      </c>
+      <c r="G70" s="3">
+        <f>(D70/D69)/(A70/A69)</f>
+        <v>0.5787315472936031</v>
       </c>
     </row>
   </sheetData>
@@ -8725,7 +9001,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8735,6 +9011,9 @@
     <col bestFit="1" customWidth="1" min="2" max="2" width="10.57421875"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="9.140625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="7.28125"/>
+    <col bestFit="1" min="5" max="5" width="14.57421875"/>
+    <col bestFit="1" min="6" max="6" width="15.7109375"/>
+    <col bestFit="1" min="7" max="7" width="12.09375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8789,7 +9068,7 @@
       <c r="C4" s="6">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>100.56999999999999</v>
       </c>
     </row>
@@ -8803,7 +9082,7 @@
       <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>516.97000000000003</v>
       </c>
     </row>
@@ -8817,7 +9096,7 @@
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>1009.01</v>
       </c>
     </row>
@@ -9013,7 +9292,7 @@
       <c r="C20" s="6">
         <v>100</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>204.75999999999999</v>
       </c>
     </row>
@@ -9027,7 +9306,7 @@
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>417.10000000000002</v>
       </c>
     </row>
@@ -9393,14 +9672,23 @@
       <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -9408,16 +9696,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <f>D2</f>
+        <f t="shared" ref="B50:B54" si="10">D2</f>
         <v>8.0199999999999996</v>
       </c>
       <c r="C50" s="1">
-        <f>D7</f>
+        <f t="shared" ref="C50:C52" si="11">D7</f>
         <v>4.3399999999999999</v>
       </c>
       <c r="D50" s="1">
-        <f>D12</f>
+        <f t="shared" ref="D50:D54" si="12">D12</f>
         <v>30.84</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -9425,16 +9722,28 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <f>D3</f>
+        <f t="shared" si="10"/>
         <v>26.100000000000001</v>
       </c>
       <c r="C51" s="1">
-        <f>D8</f>
+        <f t="shared" si="11"/>
         <v>13.359999999999999</v>
       </c>
       <c r="D51" s="1">
-        <f>D13</f>
+        <f t="shared" si="12"/>
         <v>35.979999999999997</v>
+      </c>
+      <c r="E51" s="3">
+        <f>(B51/B50)/(A51/A50)</f>
+        <v>0.65087281795511231</v>
+      </c>
+      <c r="F51" s="3">
+        <f>(C51/C50)/(A51/A50)</f>
+        <v>0.61566820276497691</v>
+      </c>
+      <c r="G51" s="3">
+        <f>(D51/D50)/(A51/A50)</f>
+        <v>0.23333333333333331</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -9442,16 +9751,28 @@
         <v>20</v>
       </c>
       <c r="B52" s="3">
-        <f>D4</f>
+        <f t="shared" si="10"/>
         <v>100.56999999999999</v>
       </c>
       <c r="C52" s="1">
-        <f>D9</f>
+        <f t="shared" si="11"/>
         <v>46.380000000000003</v>
       </c>
       <c r="D52" s="1">
-        <f>D14</f>
+        <f t="shared" si="12"/>
         <v>56.890000000000001</v>
+      </c>
+      <c r="E52" s="3">
+        <f>(B52/B51)/(A52/A51)</f>
+        <v>0.96331417624521065</v>
+      </c>
+      <c r="F52" s="3">
+        <f>(C52/C51)/(A52/A51)</f>
+        <v>0.8678892215568863</v>
+      </c>
+      <c r="G52" s="3">
+        <f>(D52/D51)/(A52/A51)</f>
+        <v>0.39528904947192889</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -9459,16 +9780,28 @@
         <v>100</v>
       </c>
       <c r="B53" s="3">
-        <f>D5</f>
+        <f t="shared" si="10"/>
         <v>516.97000000000003</v>
       </c>
       <c r="C53" s="1">
-        <f>D10</f>
+        <f t="shared" ref="C53:C54" si="13">D10</f>
         <v>243.68000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f>D15</f>
+        <f t="shared" si="12"/>
         <v>228.63</v>
+      </c>
+      <c r="E53" s="3">
+        <f>(B53/B52)/(A53/A52)</f>
+        <v>1.0280799443173909</v>
+      </c>
+      <c r="F53" s="3">
+        <f>(C53/C52)/(A53/A52)</f>
+        <v>1.0507977576541614</v>
+      </c>
+      <c r="G53" s="3">
+        <f>(D53/D52)/(A53/A52)</f>
+        <v>0.80376164528036553</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -9476,44 +9809,70 @@
         <v>200</v>
       </c>
       <c r="B54" s="3">
-        <f>D6</f>
+        <f t="shared" si="10"/>
         <v>1009.01</v>
       </c>
       <c r="C54" s="1">
-        <f>D11</f>
+        <f t="shared" si="13"/>
         <v>506.67000000000002</v>
       </c>
       <c r="D54" s="1">
-        <f>D16</f>
+        <f t="shared" si="12"/>
         <v>425.89699999999999</v>
       </c>
+      <c r="E54" s="3">
+        <f>(B54/B53)/(A54/A53)</f>
+        <v>0.9758883494206626</v>
+      </c>
+      <c r="F54" s="3">
+        <f>(C54/C53)/(A54/A53)</f>
+        <v>1.0396216349310572</v>
+      </c>
+      <c r="G54" s="3">
+        <f>(D54/D53)/(A54/A53)</f>
+        <v>0.93141101342780908</v>
+      </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -9521,16 +9880,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f>D17</f>
+        <f t="shared" ref="B58:B62" si="14">D17</f>
         <v>8.8900000000000006</v>
       </c>
       <c r="C58" s="6">
-        <f>D22</f>
+        <f t="shared" ref="C58:C62" si="15">D22</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="D58" s="1">
-        <f>D27</f>
+        <f t="shared" ref="D58:D62" si="16">D27</f>
         <v>26.09</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -9538,16 +9906,28 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <f>D18</f>
+        <f t="shared" si="14"/>
         <v>18.059999999999999</v>
       </c>
       <c r="C59" s="6">
-        <f>D23</f>
+        <f t="shared" si="15"/>
         <v>7.0599999999999996</v>
       </c>
       <c r="D59" s="1">
-        <f>D28</f>
+        <f t="shared" si="16"/>
         <v>38.119999999999997</v>
+      </c>
+      <c r="E59" s="3">
+        <f>(B59/B58)/(A59/A58)</f>
+        <v>0.40629921259842516</v>
+      </c>
+      <c r="F59" s="3">
+        <f>(C59/C58)/(A59/A58)</f>
+        <v>0.30629067245119301</v>
+      </c>
+      <c r="G59" s="3">
+        <f>(D59/D58)/(A59/A58)</f>
+        <v>0.29221924108853969</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -9555,16 +9935,28 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
-        <f>D19</f>
+        <f t="shared" si="14"/>
         <v>49.82</v>
       </c>
       <c r="C60" s="6">
-        <f>D24</f>
+        <f t="shared" si="15"/>
         <v>10.25</v>
       </c>
       <c r="D60" s="1">
-        <f>D29</f>
+        <f t="shared" si="16"/>
         <v>67.359999999999999</v>
+      </c>
+      <c r="E60" s="3">
+        <f>(B60/B59)/(A60/A59)</f>
+        <v>0.68964562569213739</v>
+      </c>
+      <c r="F60" s="3">
+        <f>(C60/C59)/(A60/A59)</f>
+        <v>0.36296033994334281</v>
+      </c>
+      <c r="G60" s="3">
+        <f>(D60/D59)/(A60/A59)</f>
+        <v>0.44176285414480593</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -9572,16 +9964,28 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
-        <f>D20</f>
+        <f t="shared" si="14"/>
         <v>204.75999999999999</v>
       </c>
       <c r="C61" s="6">
-        <f>D25</f>
+        <f t="shared" si="15"/>
         <v>44.840000000000003</v>
       </c>
       <c r="D61" s="1">
-        <f>D30</f>
+        <f t="shared" si="16"/>
         <v>127.29000000000001</v>
+      </c>
+      <c r="E61" s="3">
+        <f>(B61/B60)/(A61/A60)</f>
+        <v>0.82199919710959457</v>
+      </c>
+      <c r="F61" s="3">
+        <f>(C61/C60)/(A61/A60)</f>
+        <v>0.87492682926829279</v>
+      </c>
+      <c r="G61" s="3">
+        <f>(D61/D60)/(A61/A60)</f>
+        <v>0.37793942992874113</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -9589,16 +9993,28 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
-        <f>D21</f>
+        <f t="shared" si="14"/>
         <v>417.10000000000002</v>
       </c>
       <c r="C62" s="6">
-        <f>D26</f>
+        <f t="shared" si="15"/>
         <v>89.969999999999999</v>
       </c>
       <c r="D62" s="1">
-        <f>D31</f>
+        <f t="shared" si="16"/>
         <v>225.02000000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <f>(B62/B61)/(A62/A61)</f>
+        <v>1.0185094745067398</v>
+      </c>
+      <c r="F62" s="3">
+        <f>(C62/C61)/(A62/A61)</f>
+        <v>1.0032337198929526</v>
+      </c>
+      <c r="G62" s="3">
+        <f>(D62/D61)/(A62/A61)</f>
+        <v>0.88388718673894262</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -9606,27 +10022,42 @@
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="14.25">
@@ -9634,16 +10065,25 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f>D32</f>
+        <f t="shared" ref="B66:B70" si="17">D32</f>
         <v>10.18</v>
       </c>
       <c r="C66" s="6">
-        <f>D37</f>
+        <f t="shared" ref="C66:C70" si="18">D37</f>
         <v>7.1500000000000004</v>
       </c>
       <c r="D66" s="1">
-        <f>D42</f>
+        <f t="shared" ref="D66:D70" si="19">D42</f>
         <v>75.829999999999998</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="14.25">
@@ -9651,16 +10091,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
-        <f>D33</f>
+        <f t="shared" si="17"/>
         <v>11.51</v>
       </c>
       <c r="C67" s="6">
-        <f>D38</f>
+        <f t="shared" si="18"/>
         <v>7.3899999999999997</v>
       </c>
       <c r="D67" s="1">
-        <f>D43</f>
+        <f t="shared" si="19"/>
         <v>16.510000000000002</v>
+      </c>
+      <c r="E67" s="3">
+        <f>(B67/B66)/(A67/A66)</f>
+        <v>0.22612966601178783</v>
+      </c>
+      <c r="F67" s="3">
+        <f>(C67/C66)/(A67/A66)</f>
+        <v>0.20671328671328668</v>
+      </c>
+      <c r="G67" s="3">
+        <f>(D67/D66)/(A67/A66)</f>
+        <v>0.043544771198734018</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -9668,16 +10120,28 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
-        <f>D34</f>
+        <f t="shared" si="17"/>
         <v>12.710000000000001</v>
       </c>
       <c r="C68" s="6">
-        <f>D39</f>
+        <f t="shared" si="18"/>
         <v>7.0300000000000002</v>
       </c>
       <c r="D68" s="1">
-        <f>D44</f>
+        <f t="shared" si="19"/>
         <v>17.129999999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <f>(B68/B67)/(A68/A67)</f>
+        <v>0.27606429192006954</v>
+      </c>
+      <c r="F68" s="3">
+        <f>(C68/C67)/(A68/A67)</f>
+        <v>0.23782138024357241</v>
+      </c>
+      <c r="G68" s="3">
+        <f>(D68/D67)/(A68/A67)</f>
+        <v>0.25938824954572981</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -9685,16 +10149,28 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
-        <f>D35</f>
+        <f t="shared" si="17"/>
         <v>12.68</v>
       </c>
       <c r="C69" s="6">
-        <f>D40</f>
+        <f t="shared" si="18"/>
         <v>6.9400000000000004</v>
       </c>
       <c r="D69" s="1">
-        <f>D45</f>
+        <f t="shared" si="19"/>
         <v>15.59</v>
+      </c>
+      <c r="E69" s="3">
+        <f>(B69/B68)/(A69/A68)</f>
+        <v>0.1995279307631786</v>
+      </c>
+      <c r="F69" s="3">
+        <f>(C69/C68)/(A69/A68)</f>
+        <v>0.19743954480796586</v>
+      </c>
+      <c r="G69" s="3">
+        <f>(D69/D68)/(A69/A68)</f>
+        <v>0.18201984821949796</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -9702,16 +10178,28 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
-        <f>D36</f>
+        <f t="shared" si="17"/>
         <v>12.67</v>
       </c>
       <c r="C70" s="6">
-        <f>D41</f>
+        <f t="shared" si="18"/>
         <v>7.1200000000000001</v>
       </c>
       <c r="D70" s="1">
-        <f>D46</f>
+        <f t="shared" si="19"/>
         <v>17.760000000000002</v>
+      </c>
+      <c r="E70" s="3">
+        <f>(B70/B69)/(A70/A69)</f>
+        <v>0.49960567823343849</v>
+      </c>
+      <c r="F70" s="3">
+        <f>(C70/C69)/(A70/A69)</f>
+        <v>0.51296829971181557</v>
+      </c>
+      <c r="G70" s="3">
+        <f>(D70/D69)/(A70/A69)</f>
+        <v>0.56959589480436179</v>
       </c>
     </row>
   </sheetData>

--- a/progetto/final_report.xlsx
+++ b/progetto/final_report.xlsx
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -130,15 +130,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,17 +169,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr/>
@@ -244,7 +227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_emi</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,21 +290,21 @@
             <c:numRef>
               <c:f>'Task 1'!$B$50:$B$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>3.14</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.00">
+                <c:pt idx="1">
                   <c:v>5.05</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="00.00">
+                <c:pt idx="2">
                   <c:v>12.12</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="00.00">
+                <c:pt idx="3">
                   <c:v>40.55</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="00.00">
+                <c:pt idx="4">
                   <c:v>75.58</c:v>
                 </c:pt>
               </c:numCache>
@@ -338,7 +321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_gio</c:v>
+                  <c:v>Desktop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,7 +415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>emr</c:v>
+                  <c:v>Emr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -517,19 +500,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841523"/>
-        <c:axId val="2140841524"/>
+        <c:axId val="2140841569"/>
+        <c:axId val="2140841570"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841523"/>
+        <c:axId val="2140841569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.000000"/>
@@ -553,6 +528,67 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -591,12 +627,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841524"/>
+        <c:crossAx val="2140841570"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140841524"/>
+        <c:axId val="2140841570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,6 +655,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1"/>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr b="0"/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -657,7 +721,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841523"/>
+        <c:crossAx val="2140841569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,8 +774,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="6300786" y="8986836"/>
-      <a:ext cx="4552949" cy="2643187"/>
+      <a:off x="6119810" y="9596435"/>
+      <a:ext cx="4552948" cy="2900362"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -777,7 +841,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Spark-core</a:t>
+              <a:t>Spark</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -831,7 +895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_emi</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -925,7 +989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_gio</c:v>
+                  <c:v>Desktop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,7 +1083,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>emr</c:v>
+                  <c:v>Emr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1104,19 +1168,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841537"/>
-        <c:axId val="2140841538"/>
+        <c:axId val="2140841573"/>
+        <c:axId val="2140841574"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841537"/>
+        <c:axId val="2140841573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.000000"/>
@@ -1140,6 +1196,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1178,12 +1262,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841538"/>
+        <c:crossAx val="2140841574"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140841538"/>
+        <c:axId val="2140841574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,6 +1290,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1244,7 +1356,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841537"/>
+        <c:crossAx val="2140841573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,8 +1409,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="11653836" y="8896349"/>
-      <a:ext cx="4552949" cy="2824162"/>
+      <a:off x="11006135" y="9596435"/>
+      <a:ext cx="4552949" cy="2900362"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1418,7 +1530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_emi</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1512,7 +1624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_gio</c:v>
+                  <c:v>Desktop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1606,7 +1718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>emr</c:v>
+                  <c:v>Emr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,19 +1803,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841539"/>
-        <c:axId val="2140841540"/>
+        <c:axId val="2140841571"/>
+        <c:axId val="2140841572"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841539"/>
+        <c:axId val="2140841571"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.000000"/>
@@ -1727,6 +1831,38 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1765,12 +1901,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841540"/>
+        <c:crossAx val="2140841572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140841540"/>
+        <c:axId val="2140841572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,6 +1929,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="00.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1831,7 +1995,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841539"/>
+        <c:crossAx val="2140841571"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1884,8 +2048,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8253411" y="5314949"/>
-      <a:ext cx="4652962" cy="2805111"/>
+      <a:off x="8558210" y="6505573"/>
+      <a:ext cx="4652962" cy="2881311"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1947,17 +2111,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr/>
@@ -2015,7 +2169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_emi</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2109,7 +2263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_gio</c:v>
+                  <c:v>Desktop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2203,7 +2357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>emr</c:v>
+                  <c:v>Emr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2288,19 +2442,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841561"/>
-        <c:axId val="2140841562"/>
+        <c:axId val="2140841575"/>
+        <c:axId val="2140841576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841561"/>
+        <c:axId val="2140841575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.000000"/>
@@ -2324,6 +2470,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2362,12 +2536,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841562"/>
+        <c:crossAx val="2140841576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140841562"/>
+        <c:axId val="2140841576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,6 +2564,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2428,7 +2630,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841561"/>
+        <c:crossAx val="2140841575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,8 +2683,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="5410198" y="8713786"/>
-      <a:ext cx="4565649" cy="2628900"/>
+      <a:off x="6088060" y="9586910"/>
+      <a:ext cx="4554536" cy="2890838"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -2544,17 +2746,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr/>
@@ -2609,6 +2801,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 2'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -2645,11 +2843,48 @@
           <c:xVal>
             <c:strRef>
               <c:f>'Task 2'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 2'!$B$58:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417.1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2660,6 +2895,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 2'!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desktop</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -2696,11 +2937,48 @@
           <c:xVal>
             <c:strRef>
               <c:f>'Task 2'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 2'!$C$58:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.97</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2711,6 +2989,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 2'!$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Emr</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -2747,30 +3031,60 @@
           <c:xVal>
             <c:strRef>
               <c:f>'Task 2'!$A$58:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 2'!$D$58:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225.02</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841551"/>
-        <c:axId val="2140841552"/>
+        <c:axId val="2140841581"/>
+        <c:axId val="2140841582"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841551"/>
+        <c:axId val="2140841581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200.000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2791,71 +3105,57 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2140841552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2140841552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr>
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2894,7 +3194,128 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841551"/>
+        <c:crossAx val="2140841582"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841582"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841581"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2947,8 +3368,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="10277473" y="8713786"/>
-      <a:ext cx="4565649" cy="2628900"/>
+      <a:off x="10980735" y="9586910"/>
+      <a:ext cx="4554536" cy="2890838"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -3010,17 +3431,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr/>
@@ -3078,7 +3489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_emi</c:v>
+                  <c:v>Laptop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3172,7 +3583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local_gio</c:v>
+                  <c:v>Desktop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,7 +3677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>emr</c:v>
+                  <c:v>Emr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3351,19 +3762,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="2140841559"/>
-        <c:axId val="2140841560"/>
+        <c:axId val="2140841577"/>
+        <c:axId val="2140841578"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140841559"/>
+        <c:axId val="2140841577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.000000"/>
@@ -3387,6 +3790,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3425,12 +3856,12 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841560"/>
+        <c:crossAx val="2140841578"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140841560"/>
+        <c:axId val="2140841578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,6 +3884,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="00.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3491,7 +3950,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140841559"/>
+        <c:crossAx val="2140841577"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3544,8 +4003,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="7431086" y="5140324"/>
-      <a:ext cx="4564062" cy="2628899"/>
+      <a:off x="8542335" y="6534149"/>
+      <a:ext cx="4551361" cy="2876548"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7101,16 +7560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>52386</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4760</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>338135</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>290509</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7120,8 +7579,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6300786" y="8986836"/>
-        <a:ext cx="4552949" cy="2643187"/>
+        <a:off x="6119810" y="9596435"/>
+        <a:ext cx="4552948" cy="2900362"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7133,16 +7592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>528636</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14285</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>204785</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>300034</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7152,8 +7611,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11653836" y="8896349"/>
-        <a:ext cx="4552949" cy="2824162"/>
+        <a:off x="11006135" y="9596435"/>
+        <a:ext cx="4552949" cy="2900362"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7165,16 +7624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>561973</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390522</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7184,8 +7643,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8253411" y="5314949"/>
-        <a:ext cx="4652962" cy="2805111"/>
+        <a:off x="8558210" y="6505573"/>
+        <a:ext cx="4652962" cy="2881311"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7202,16 +7661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>306386</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601660</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>593723</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>279397</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7221,8 +7680,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5410198" y="8713786"/>
-        <a:ext cx="4565649" cy="2628900"/>
+        <a:off x="6088060" y="9586910"/>
+        <a:ext cx="4554536" cy="2890838"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7235,15 +7694,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>284161</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:colOff>7935</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>295272</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7253,8 +7712,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10277473" y="8713786"/>
-        <a:ext cx="4565649" cy="2628900"/>
+        <a:off x="10980735" y="9586910"/>
+        <a:ext cx="4554536" cy="2890838"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7266,16 +7725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>493711</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7935</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>168273</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>292097</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7285,8 +7744,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7431086" y="5140324"/>
-        <a:ext cx="4564062" cy="2628899"/>
+        <a:off x="8542335" y="6534149"/>
+        <a:ext cx="4551361" cy="2876548"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8473,7 +8932,7 @@
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
@@ -8505,10 +8964,10 @@
       <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8529,15 +8988,15 @@
         <v>30.050000000000001</v>
       </c>
       <c r="E51" s="3">
-        <f>(B51/B50)/(A51/A50)</f>
+        <f t="shared" ref="E51:E70" si="3">(B51/B50)/(A51/A50)</f>
         <v>0.321656050955414</v>
       </c>
       <c r="F51" s="3">
-        <f>(C51/C50)/(A51/A50)</f>
+        <f t="shared" ref="F51:F70" si="4">(C51/C50)/(A51/A50)</f>
         <v>0.28755364806866951</v>
       </c>
       <c r="G51" s="3">
-        <f>(D51/D50)/(A51/A50)</f>
+        <f t="shared" ref="G51:G69" si="5">(D51/D50)/(A51/A50)</f>
         <v>0.1835114503816794</v>
       </c>
     </row>
@@ -8558,15 +9017,15 @@
         <v>33</v>
       </c>
       <c r="E52" s="3">
-        <f>(B52/B51)/(A52/A51)</f>
+        <f t="shared" si="3"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="F52" s="3">
-        <f>(C52/C51)/(A52/A51)</f>
+        <f t="shared" si="4"/>
         <v>0.39626865671641787</v>
       </c>
       <c r="G52" s="3">
-        <f>(D52/D51)/(A52/A51)</f>
+        <f t="shared" si="5"/>
         <v>0.27454242928452577</v>
       </c>
     </row>
@@ -8579,7 +9038,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C54" si="3">D10</f>
+        <f t="shared" ref="C53:C54" si="6">D10</f>
         <v>19.370000000000001</v>
       </c>
       <c r="D53" s="1">
@@ -8587,15 +9046,15 @@
         <v>106.61</v>
       </c>
       <c r="E53" s="3">
-        <f>(B53/B52)/(A53/A52)</f>
+        <f t="shared" si="3"/>
         <v>0.66914191419141911</v>
       </c>
       <c r="F53" s="3">
-        <f>(C53/C52)/(A53/A52)</f>
+        <f t="shared" si="4"/>
         <v>0.72956685499058394</v>
       </c>
       <c r="G53" s="3">
-        <f>(D53/D52)/(A53/A52)</f>
+        <f t="shared" si="5"/>
         <v>0.6461212121212121</v>
       </c>
     </row>
@@ -8608,7 +9067,7 @@
         <v>75.579999999999998</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.409999999999997</v>
       </c>
       <c r="D54" s="1">
@@ -8616,15 +9075,15 @@
         <v>187.49000000000001</v>
       </c>
       <c r="E54" s="3">
-        <f>(B54/B53)/(A54/A53)</f>
+        <f t="shared" si="3"/>
         <v>0.93193588162762031</v>
       </c>
       <c r="F54" s="3">
-        <f>(C54/C53)/(A54/A53)</f>
+        <f t="shared" si="4"/>
         <v>0.91404233350542063</v>
       </c>
       <c r="G54" s="3">
-        <f>(D54/D53)/(A54/A53)</f>
+        <f t="shared" si="5"/>
         <v>0.87932651721226907</v>
       </c>
     </row>
@@ -8674,15 +9133,15 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B62" si="4">D17</f>
+        <f t="shared" ref="B58:B62" si="7">D17</f>
         <v>6.5999999999999996</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C62" si="5">D22</f>
+        <f t="shared" ref="C58:C62" si="8">D22</f>
         <v>4.4900000000000002</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:D62" si="6">D27</f>
+        <f t="shared" ref="D58:D62" si="9">D27</f>
         <v>27.870000000000001</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -8700,27 +9159,27 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6200000000000001</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>5.6699999999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="9"/>
+        <v>27.23</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20060606060606062</v>
+      </c>
+      <c r="F59" s="3">
         <f t="shared" si="4"/>
-        <v>6.6200000000000001</v>
-      </c>
-      <c r="C59">
+        <v>0.25256124721603562</v>
+      </c>
+      <c r="G59" s="3">
         <f t="shared" si="5"/>
-        <v>5.6699999999999999</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="6"/>
-        <v>27.23</v>
-      </c>
-      <c r="E59" s="3">
-        <f>(B59/B58)/(A59/A58)</f>
-        <v>0.20060606060606062</v>
-      </c>
-      <c r="F59" s="3">
-        <f>(C59/C58)/(A59/A58)</f>
-        <v>0.25256124721603562</v>
-      </c>
-      <c r="G59" s="3">
-        <f>(D59/D58)/(A59/A58)</f>
         <v>0.19540724793684966</v>
       </c>
     </row>
@@ -8729,27 +9188,27 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
+        <f t="shared" si="7"/>
+        <v>14.15</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="8"/>
+        <v>7.9400000000000004</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="9"/>
+        <v>31.960000000000001</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53436555891238668</v>
+      </c>
+      <c r="F60" s="3">
         <f t="shared" si="4"/>
-        <v>14.15</v>
-      </c>
-      <c r="C60">
+        <v>0.35008818342151676</v>
+      </c>
+      <c r="G60" s="3">
         <f t="shared" si="5"/>
-        <v>7.9400000000000004</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="6"/>
-        <v>31.960000000000001</v>
-      </c>
-      <c r="E60" s="3">
-        <f>(B60/B59)/(A60/A59)</f>
-        <v>0.53436555891238668</v>
-      </c>
-      <c r="F60" s="3">
-        <f>(C60/C59)/(A60/A59)</f>
-        <v>0.35008818342151676</v>
-      </c>
-      <c r="G60" s="3">
-        <f>(D60/D59)/(A60/A59)</f>
         <v>0.29342636797649652</v>
       </c>
     </row>
@@ -8758,27 +9217,27 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
+        <f t="shared" si="7"/>
+        <v>32.439999999999998</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="8"/>
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="9"/>
+        <v>38.409999999999997</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45851590106007062</v>
+      </c>
+      <c r="F61" s="3">
         <f t="shared" si="4"/>
-        <v>32.439999999999998</v>
-      </c>
-      <c r="C61">
+        <v>0.46977329974811077</v>
+      </c>
+      <c r="G61" s="3">
         <f t="shared" si="5"/>
-        <v>18.649999999999999</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="6"/>
-        <v>38.409999999999997</v>
-      </c>
-      <c r="E61" s="3">
-        <f>(B61/B60)/(A61/A60)</f>
-        <v>0.45851590106007062</v>
-      </c>
-      <c r="F61" s="3">
-        <f>(C61/C60)/(A61/A60)</f>
-        <v>0.46977329974811077</v>
-      </c>
-      <c r="G61" s="3">
-        <f>(D61/D60)/(A61/A60)</f>
         <v>0.24036295369211511</v>
       </c>
     </row>
@@ -8787,27 +9246,27 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
+        <f t="shared" si="7"/>
+        <v>60.280000000000001</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="8"/>
+        <v>25.100000000000001</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="9"/>
+        <v>48.710000000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92909987669543781</v>
+      </c>
+      <c r="F62" s="3">
         <f t="shared" si="4"/>
-        <v>60.280000000000001</v>
-      </c>
-      <c r="C62">
+        <v>0.67292225201072398</v>
+      </c>
+      <c r="G62" s="3">
         <f t="shared" si="5"/>
-        <v>25.100000000000001</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="6"/>
-        <v>48.710000000000001</v>
-      </c>
-      <c r="E62" s="3">
-        <f>(B62/B61)/(A62/A61)</f>
-        <v>0.92909987669543781</v>
-      </c>
-      <c r="F62" s="3">
-        <f>(C62/C61)/(A62/A61)</f>
-        <v>0.67292225201072398</v>
-      </c>
-      <c r="G62" s="3">
-        <f>(D62/D61)/(A62/A61)</f>
         <v>0.63407966675344973</v>
       </c>
     </row>
@@ -8852,15 +9311,15 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" ref="B66:B70" si="7">D32</f>
+        <f t="shared" ref="B66:B70" si="10">D32</f>
         <v>13.710000000000001</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="8">D37</f>
+        <f t="shared" ref="C66:C70" si="11">D37</f>
         <v>8.9700000000000006</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D70" si="9">D42</f>
+        <f t="shared" ref="D66:D70" si="12">D42</f>
         <v>28.300000000000001</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -8878,27 +9337,27 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17.289999999999999</v>
       </c>
       <c r="C67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.3100000000000005</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>29.93</v>
       </c>
       <c r="E67" s="3">
-        <f>(B67/B66)/(A67/A66)</f>
+        <f t="shared" si="3"/>
         <v>0.25222465353756379</v>
       </c>
       <c r="F67" s="3">
-        <f>(C67/C66)/(A67/A66)</f>
+        <f t="shared" si="4"/>
         <v>0.20758082497212932</v>
       </c>
       <c r="G67" s="3">
-        <f>(D67/D66)/(A67/A66)</f>
+        <f t="shared" si="5"/>
         <v>0.21151943462897527</v>
       </c>
     </row>
@@ -8907,27 +9366,27 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22.579999999999998</v>
       </c>
       <c r="C68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11.380000000000001</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>32.590000000000003</v>
       </c>
       <c r="E68" s="3">
-        <f>(B68/B67)/(A68/A67)</f>
+        <f t="shared" si="3"/>
         <v>0.32648930017351069</v>
       </c>
       <c r="F68" s="3">
-        <f>(C68/C67)/(A68/A67)</f>
+        <f t="shared" si="4"/>
         <v>0.30558539205155749</v>
       </c>
       <c r="G68" s="3">
-        <f>(D68/D67)/(A68/A67)</f>
+        <f t="shared" si="5"/>
         <v>0.27221850985633145</v>
       </c>
     </row>
@@ -8936,27 +9395,27 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46.789999999999999</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.370000000000001</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>36.579999999999998</v>
       </c>
       <c r="E69" s="3">
-        <f>(B69/B68)/(A69/A68)</f>
+        <f t="shared" si="3"/>
         <v>0.41443755535872456</v>
       </c>
       <c r="F69" s="3">
-        <f>(C69/C68)/(A69/A68)</f>
+        <f t="shared" si="4"/>
         <v>0.37557117750439367</v>
       </c>
       <c r="G69" s="3">
-        <f>(D69/D68)/(A69/A68)</f>
+        <f t="shared" si="5"/>
         <v>0.22448603866216627</v>
       </c>
     </row>
@@ -8965,23 +9424,23 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.769999999999996</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.719999999999999</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>42.340000000000003</v>
       </c>
       <c r="E70" s="3">
-        <f>(B70/B69)/(A70/A69)</f>
+        <f t="shared" si="3"/>
         <v>0.87379782004701856</v>
       </c>
       <c r="F70" s="3">
-        <f>(C70/C69)/(A70/A69)</f>
+        <f t="shared" si="4"/>
         <v>0.85914833879270003</v>
       </c>
       <c r="G70" s="3">
@@ -9068,7 +9527,7 @@
       <c r="C4" s="6">
         <v>20</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>100.56999999999999</v>
       </c>
     </row>
@@ -9082,7 +9541,7 @@
       <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>516.97000000000003</v>
       </c>
     </row>
@@ -9096,7 +9555,7 @@
       <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>1009.01</v>
       </c>
     </row>
@@ -9292,7 +9751,7 @@
       <c r="C20" s="6">
         <v>100</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>204.75999999999999</v>
       </c>
     </row>
@@ -9306,7 +9765,7 @@
       <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>417.10000000000002</v>
       </c>
     </row>
@@ -9681,13 +10140,13 @@
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9696,15 +10155,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" ref="B50:B54" si="10">D2</f>
+        <f t="shared" ref="B50:B54" si="13">D2</f>
         <v>8.0199999999999996</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:C52" si="11">D7</f>
+        <f t="shared" ref="C50:C52" si="14">D7</f>
         <v>4.3399999999999999</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ref="D50:D54" si="12">D12</f>
+        <f t="shared" ref="D50:D54" si="15">D12</f>
         <v>30.84</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -9722,27 +10181,27 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>26.100000000000001</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13.359999999999999</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>35.979999999999997</v>
       </c>
       <c r="E51" s="3">
-        <f>(B51/B50)/(A51/A50)</f>
+        <f t="shared" ref="E51:E70" si="16">(B51/B50)/(A51/A50)</f>
         <v>0.65087281795511231</v>
       </c>
       <c r="F51" s="3">
-        <f>(C51/C50)/(A51/A50)</f>
+        <f t="shared" ref="F51:F70" si="17">(C51/C50)/(A51/A50)</f>
         <v>0.61566820276497691</v>
       </c>
       <c r="G51" s="3">
-        <f>(D51/D50)/(A51/A50)</f>
+        <f t="shared" ref="G51:G70" si="18">(D51/D50)/(A51/A50)</f>
         <v>0.23333333333333331</v>
       </c>
     </row>
@@ -9751,27 +10210,27 @@
         <v>20</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>100.56999999999999</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>46.380000000000003</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>56.890000000000001</v>
       </c>
       <c r="E52" s="3">
-        <f>(B52/B51)/(A52/A51)</f>
+        <f t="shared" si="16"/>
         <v>0.96331417624521065</v>
       </c>
       <c r="F52" s="3">
-        <f>(C52/C51)/(A52/A51)</f>
+        <f t="shared" si="17"/>
         <v>0.8678892215568863</v>
       </c>
       <c r="G52" s="3">
-        <f>(D52/D51)/(A52/A51)</f>
+        <f t="shared" si="18"/>
         <v>0.39528904947192889</v>
       </c>
     </row>
@@ -9780,27 +10239,27 @@
         <v>100</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>516.97000000000003</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C54" si="13">D10</f>
+        <f t="shared" ref="C53:C54" si="19">D10</f>
         <v>243.68000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>228.63</v>
       </c>
       <c r="E53" s="3">
-        <f>(B53/B52)/(A53/A52)</f>
+        <f t="shared" si="16"/>
         <v>1.0280799443173909</v>
       </c>
       <c r="F53" s="3">
-        <f>(C53/C52)/(A53/A52)</f>
+        <f t="shared" si="17"/>
         <v>1.0507977576541614</v>
       </c>
       <c r="G53" s="3">
-        <f>(D53/D52)/(A53/A52)</f>
+        <f t="shared" si="18"/>
         <v>0.80376164528036553</v>
       </c>
     </row>
@@ -9809,27 +10268,27 @@
         <v>200</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1009.01</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>506.67000000000002</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>425.89699999999999</v>
       </c>
       <c r="E54" s="3">
-        <f>(B54/B53)/(A54/A53)</f>
+        <f t="shared" si="16"/>
         <v>0.9758883494206626</v>
       </c>
       <c r="F54" s="3">
-        <f>(C54/C53)/(A54/A53)</f>
+        <f t="shared" si="17"/>
         <v>1.0396216349310572</v>
       </c>
       <c r="G54" s="3">
-        <f>(D54/D53)/(A54/A53)</f>
+        <f t="shared" si="18"/>
         <v>0.93141101342780908</v>
       </c>
     </row>
@@ -9880,15 +10339,15 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B62" si="14">D17</f>
+        <f t="shared" ref="B58:B62" si="20">D17</f>
         <v>8.8900000000000006</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ref="C58:C62" si="15">D22</f>
+        <f t="shared" ref="C58:C62" si="21">D22</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:D62" si="16">D27</f>
+        <f t="shared" ref="D58:D62" si="22">D27</f>
         <v>26.09</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -9906,27 +10365,27 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>18.059999999999999</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7.0599999999999996</v>
       </c>
       <c r="D59" s="1">
+        <f t="shared" si="22"/>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="E59" s="3">
         <f t="shared" si="16"/>
-        <v>38.119999999999997</v>
-      </c>
-      <c r="E59" s="3">
-        <f>(B59/B58)/(A59/A58)</f>
         <v>0.40629921259842516</v>
       </c>
       <c r="F59" s="3">
-        <f>(C59/C58)/(A59/A58)</f>
+        <f t="shared" si="17"/>
         <v>0.30629067245119301</v>
       </c>
       <c r="G59" s="3">
-        <f>(D59/D58)/(A59/A58)</f>
+        <f t="shared" si="18"/>
         <v>0.29221924108853969</v>
       </c>
     </row>
@@ -9935,27 +10394,27 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>49.82</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>10.25</v>
       </c>
       <c r="D60" s="1">
+        <f t="shared" si="22"/>
+        <v>67.359999999999999</v>
+      </c>
+      <c r="E60" s="3">
         <f t="shared" si="16"/>
-        <v>67.359999999999999</v>
-      </c>
-      <c r="E60" s="3">
-        <f>(B60/B59)/(A60/A59)</f>
         <v>0.68964562569213739</v>
       </c>
       <c r="F60" s="3">
-        <f>(C60/C59)/(A60/A59)</f>
+        <f t="shared" si="17"/>
         <v>0.36296033994334281</v>
       </c>
       <c r="G60" s="3">
-        <f>(D60/D59)/(A60/A59)</f>
+        <f t="shared" si="18"/>
         <v>0.44176285414480593</v>
       </c>
     </row>
@@ -9964,27 +10423,27 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>204.75999999999999</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>44.840000000000003</v>
       </c>
       <c r="D61" s="1">
+        <f t="shared" si="22"/>
+        <v>127.29000000000001</v>
+      </c>
+      <c r="E61" s="3">
         <f t="shared" si="16"/>
-        <v>127.29000000000001</v>
-      </c>
-      <c r="E61" s="3">
-        <f>(B61/B60)/(A61/A60)</f>
         <v>0.82199919710959457</v>
       </c>
       <c r="F61" s="3">
-        <f>(C61/C60)/(A61/A60)</f>
+        <f t="shared" si="17"/>
         <v>0.87492682926829279</v>
       </c>
       <c r="G61" s="3">
-        <f>(D61/D60)/(A61/A60)</f>
+        <f t="shared" si="18"/>
         <v>0.37793942992874113</v>
       </c>
     </row>
@@ -9993,27 +10452,27 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>417.10000000000002</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>89.969999999999999</v>
       </c>
       <c r="D62" s="1">
+        <f t="shared" si="22"/>
+        <v>225.02000000000001</v>
+      </c>
+      <c r="E62" s="3">
         <f t="shared" si="16"/>
-        <v>225.02000000000001</v>
-      </c>
-      <c r="E62" s="3">
-        <f>(B62/B61)/(A62/A61)</f>
         <v>1.0185094745067398</v>
       </c>
       <c r="F62" s="3">
-        <f>(C62/C61)/(A62/A61)</f>
+        <f t="shared" si="17"/>
         <v>1.0032337198929526</v>
       </c>
       <c r="G62" s="3">
-        <f>(D62/D61)/(A62/A61)</f>
+        <f t="shared" si="18"/>
         <v>0.88388718673894262</v>
       </c>
     </row>
@@ -10065,15 +10524,15 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" ref="B66:B70" si="17">D32</f>
+        <f t="shared" ref="B66:B70" si="23">D32</f>
         <v>10.18</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" ref="C66:C70" si="18">D37</f>
+        <f t="shared" ref="C66:C70" si="24">D37</f>
         <v>7.1500000000000004</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D70" si="19">D42</f>
+        <f t="shared" ref="D66:D70" si="25">D42</f>
         <v>75.829999999999998</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -10091,28 +10550,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
+        <f t="shared" si="23"/>
+        <v>11.51</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="24"/>
+        <v>7.3899999999999997</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="25"/>
+        <v>16.510000000000002</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="16"/>
+        <v>0.22612966601178783</v>
+      </c>
+      <c r="F67" s="3">
         <f t="shared" si="17"/>
-        <v>11.51</v>
-      </c>
-      <c r="C67" s="6">
+        <v>0.20671328671328668</v>
+      </c>
+      <c r="G67" s="3">
         <f t="shared" si="18"/>
-        <v>7.3899999999999997</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="19"/>
-        <v>16.510000000000002</v>
-      </c>
-      <c r="E67" s="3">
-        <f>(B67/B66)/(A67/A66)</f>
-        <v>0.22612966601178783</v>
-      </c>
-      <c r="F67" s="3">
-        <f>(C67/C66)/(A67/A66)</f>
-        <v>0.20671328671328668</v>
-      </c>
-      <c r="G67" s="3">
-        <f>(D67/D66)/(A67/A66)</f>
-        <v>0.043544771198734018</v>
+        <v>4.3544771198734018e-002</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -10120,27 +10579,27 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
+        <f t="shared" si="23"/>
+        <v>12.710000000000001</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="24"/>
+        <v>7.0300000000000002</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="25"/>
+        <v>17.129999999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="16"/>
+        <v>0.27606429192006954</v>
+      </c>
+      <c r="F68" s="3">
         <f t="shared" si="17"/>
-        <v>12.710000000000001</v>
-      </c>
-      <c r="C68" s="6">
+        <v>0.23782138024357241</v>
+      </c>
+      <c r="G68" s="3">
         <f t="shared" si="18"/>
-        <v>7.0300000000000002</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="19"/>
-        <v>17.129999999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <f>(B68/B67)/(A68/A67)</f>
-        <v>0.27606429192006954</v>
-      </c>
-      <c r="F68" s="3">
-        <f>(C68/C67)/(A68/A67)</f>
-        <v>0.23782138024357241</v>
-      </c>
-      <c r="G68" s="3">
-        <f>(D68/D67)/(A68/A67)</f>
         <v>0.25938824954572981</v>
       </c>
     </row>
@@ -10149,27 +10608,27 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
+        <f t="shared" si="23"/>
+        <v>12.68</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="24"/>
+        <v>6.9400000000000004</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="25"/>
+        <v>15.59</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="16"/>
+        <v>0.1995279307631786</v>
+      </c>
+      <c r="F69" s="3">
         <f t="shared" si="17"/>
-        <v>12.68</v>
-      </c>
-      <c r="C69" s="6">
+        <v>0.19743954480796586</v>
+      </c>
+      <c r="G69" s="3">
         <f t="shared" si="18"/>
-        <v>6.9400000000000004</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="19"/>
-        <v>15.59</v>
-      </c>
-      <c r="E69" s="3">
-        <f>(B69/B68)/(A69/A68)</f>
-        <v>0.1995279307631786</v>
-      </c>
-      <c r="F69" s="3">
-        <f>(C69/C68)/(A69/A68)</f>
-        <v>0.19743954480796586</v>
-      </c>
-      <c r="G69" s="3">
-        <f>(D69/D68)/(A69/A68)</f>
         <v>0.18201984821949796</v>
       </c>
     </row>
@@ -10178,27 +10637,27 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
+        <f t="shared" si="23"/>
+        <v>12.67</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" si="24"/>
+        <v>7.1200000000000001</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="25"/>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="16"/>
+        <v>0.49960567823343849</v>
+      </c>
+      <c r="F70" s="3">
         <f t="shared" si="17"/>
-        <v>12.67</v>
-      </c>
-      <c r="C70" s="6">
+        <v>0.51296829971181557</v>
+      </c>
+      <c r="G70" s="3">
         <f t="shared" si="18"/>
-        <v>7.1200000000000001</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="19"/>
-        <v>17.760000000000002</v>
-      </c>
-      <c r="E70" s="3">
-        <f>(B70/B69)/(A70/A69)</f>
-        <v>0.49960567823343849</v>
-      </c>
-      <c r="F70" s="3">
-        <f>(C70/C69)/(A70/A69)</f>
-        <v>0.51296829971181557</v>
-      </c>
-      <c r="G70" s="3">
-        <f>(D70/D69)/(A70/A69)</f>
         <v>0.56959589480436179</v>
       </c>
     </row>

--- a/progetto/final_report.xlsx
+++ b/progetto/final_report.xlsx
@@ -224,12 +224,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 1'!$B$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -264,50 +258,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Task 1'!$A$50:$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 1'!$B$50:$B$54</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.58</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -318,12 +275,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 1'!$C$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desktop</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -358,50 +309,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Task 1'!$A$50:$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 1'!$C$50:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.41</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -412,12 +326,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'Task 1'!$D$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Emr</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -452,54 +360,25 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Task 1'!$A$50:$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Task 1'!$D$50:$D$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187.49</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841569"/>
         <c:axId val="2140841570"/>
       </c:scatterChart>
@@ -774,7 +653,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="6119810" y="9596435"/>
+      <a:off x="6119809" y="9596435"/>
       <a:ext cx="4552948" cy="2900362"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1168,6 +1047,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841573"/>
         <c:axId val="2140841574"/>
       </c:scatterChart>
@@ -1803,6 +1690,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841571"/>
         <c:axId val="2140841572"/>
       </c:scatterChart>
@@ -2048,7 +1943,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8558210" y="6505573"/>
+      <a:off x="8558210" y="6505572"/>
       <a:ext cx="4652962" cy="2881311"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -2442,6 +2337,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841575"/>
         <c:axId val="2140841576"/>
       </c:scatterChart>
@@ -3077,6 +2980,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841581"/>
         <c:axId val="2140841582"/>
       </c:scatterChart>
@@ -3762,6 +3673,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841577"/>
         <c:axId val="2140841578"/>
       </c:scatterChart>
@@ -7579,7 +7498,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6119810" y="9596435"/>
+        <a:off x="6119809" y="9596435"/>
         <a:ext cx="4552948" cy="2900362"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7593,7 +7512,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>14285</xdr:colOff>
+      <xdr:colOff>14284</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
@@ -7627,7 +7546,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>4760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:rowOff>171447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -7643,7 +7562,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8558210" y="6505573"/>
+        <a:off x="8558210" y="6505572"/>
         <a:ext cx="4652962" cy="2881311"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7664,7 +7583,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>601660</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>176210</xdr:rowOff>
+      <xdr:rowOff>176209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -7696,7 +7615,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>7935</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>176210</xdr:rowOff>
+      <xdr:rowOff>176209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -8950,15 +8869,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" ref="B50:B54" si="0">D2</f>
-        <v>3.1400000000000001</v>
+        <f>D2/D2</f>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:C52" si="1">D7</f>
+        <f t="shared" ref="C50:C52" si="0">D7</f>
         <v>2.3300000000000001</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ref="D50:D54" si="2">D12</f>
+        <f t="shared" ref="D50:D54" si="1">D12</f>
         <v>32.75</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -8976,28 +8895,28 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
+        <f>D3/D2</f>
+        <v>1.60828025477707</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>5.0499999999999998</v>
-      </c>
-      <c r="C51" s="1">
+        <v>3.3500000000000001</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>3.3500000000000001</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="2"/>
         <v>30.050000000000001</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" ref="E51:E70" si="3">(B51/B50)/(A51/A50)</f>
-        <v>0.321656050955414</v>
+        <f>((B51-B50)/(A51-A50))*(A51/B51)</f>
+        <v>0.47277227722772275</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" ref="F51:F70" si="4">(C51/C50)/(A51/A50)</f>
-        <v>0.28755364806866951</v>
+        <f>((C51-C50)/(A51-A50))*(A51/C51)</f>
+        <v>0.38059701492537312</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ref="G51:G69" si="5">(D51/D50)/(A51/A50)</f>
-        <v>0.1835114503816794</v>
+        <f>((D51-D50)/(A51-A50))*(A51/D51)</f>
+        <v>-0.11231281198003325</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -9005,28 +8924,28 @@
         <v>20</v>
       </c>
       <c r="B52" s="3">
+        <f>D4/D2</f>
+        <v>3.8598726114649677</v>
+      </c>
+      <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>12.119999999999999</v>
-      </c>
-      <c r="C52" s="1">
+        <v>5.3099999999999996</v>
+      </c>
+      <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>5.3099999999999996</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999998</v>
+        <f>((B52-B51)/(A52-A51))*(A52/B52)</f>
+        <v>0.77777777777777768</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="4"/>
-        <v>0.39626865671641787</v>
+        <f>((C52-C51)/(A52-A51))*(A52/C52)</f>
+        <v>0.49215317011927168</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="5"/>
-        <v>0.27454242928452577</v>
+        <f>((D52-D51)/(A52-A51))*(A52/D52)</f>
+        <v>0.11919191919191917</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -9034,28 +8953,28 @@
         <v>100</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="0"/>
-        <v>40.549999999999997</v>
+        <f>D5/D2</f>
+        <v>12.914012738853502</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C54" si="6">D10</f>
+        <f t="shared" ref="C53:C54" si="2">D10</f>
         <v>19.370000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106.61</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="3"/>
-        <v>0.66914191419141911</v>
+        <f>((B53-B52)/(A53-A52))*(A53/B53)</f>
+        <v>0.8763871763255241</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="4"/>
-        <v>0.72956685499058394</v>
+        <f>((C53-C52)/(A53-A52))*(A53/C53)</f>
+        <v>0.9073309241094476</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="5"/>
-        <v>0.6461212121212121</v>
+        <f>((D53-D52)/(A53-A52))*(A53/D53)</f>
+        <v>0.86307569646374638</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -9063,28 +8982,28 @@
         <v>200</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="0"/>
-        <v>75.579999999999998</v>
+        <f>D6/D2</f>
+        <v>24.070063694267514</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>35.409999999999997</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>187.49000000000001</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="3"/>
-        <v>0.93193588162762031</v>
+        <f>((B54-B53)/(A54-A53))*(A54/B54)</f>
+        <v>0.92696480550410143</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="4"/>
-        <v>0.91404233350542063</v>
+        <f>((C54-C53)/(A54-A53))*(A54/C54)</f>
+        <v>0.90595876870940406</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="5"/>
-        <v>0.87932651721226907</v>
+        <f>((D54-D53)/(A54-A53))*(A54/D54)</f>
+        <v>0.86276601418742338</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -9133,15 +9052,15 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B62" si="7">D17</f>
+        <f t="shared" ref="B58:B62" si="3">D17</f>
         <v>6.5999999999999996</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C62" si="8">D22</f>
+        <f t="shared" ref="C58:C62" si="4">D22</f>
         <v>4.4900000000000002</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:D62" si="9">D27</f>
+        <f t="shared" ref="D58:D62" si="5">D27</f>
         <v>27.870000000000001</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -9159,28 +9078,28 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.6200000000000001</v>
       </c>
       <c r="C59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.6699999999999999</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>27.23</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="3"/>
-        <v>0.20060606060606062</v>
+        <f>((B59-B58)/(A59-A58))*(A59/B59)</f>
+        <v>0.0037764350453173079</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="4"/>
-        <v>0.25256124721603562</v>
+        <f>((C59-C58)/(A59-A58))*(A59/C59)</f>
+        <v>0.26014109347442677</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="5"/>
-        <v>0.19540724793684966</v>
+        <f>((D59-D58)/(A59-A58))*(A59/D59)</f>
+        <v>-0.029379360998898298</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -9188,28 +9107,28 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>14.15</v>
       </c>
       <c r="C60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7.9400000000000004</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>31.960000000000001</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="3"/>
-        <v>0.53436555891238668</v>
+        <f>((B60-B59)/(A60-A59))*(A60/B60)</f>
+        <v>0.70954063604240281</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="4"/>
-        <v>0.35008818342151676</v>
+        <f>((C60-C59)/(A60-A59))*(A60/C60)</f>
+        <v>0.38119227539882461</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="5"/>
-        <v>0.29342636797649652</v>
+        <f>((D60-D59)/(A60-A59))*(A60/D60)</f>
+        <v>0.1973299958281185</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -9217,28 +9136,28 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>32.439999999999998</v>
       </c>
       <c r="C61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>18.649999999999999</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>38.409999999999997</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="3"/>
-        <v>0.45851590106007062</v>
+        <f>((B61-B60)/(A61-A60))*(A61/B61)</f>
+        <v>0.70476263871763256</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="4"/>
-        <v>0.46977329974811077</v>
+        <f>((C61-C60)/(A61-A60))*(A61/C61)</f>
+        <v>0.71782841823056287</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="5"/>
-        <v>0.24036295369211511</v>
+        <f>((D61-D60)/(A61-A60))*(A61/D61)</f>
+        <v>0.20990627440770623</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -9246,28 +9165,28 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>60.280000000000001</v>
       </c>
       <c r="C62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>25.100000000000001</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>48.710000000000001</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92909987669543781</v>
+        <f>((B62-B61)/(A62-A61))*(A62/B62)</f>
+        <v>0.92368944923689467</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="4"/>
-        <v>0.67292225201072398</v>
+        <f>((C62-C61)/(A62-A61))*(A62/C62)</f>
+        <v>0.51394422310756993</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="5"/>
-        <v>0.63407966675344973</v>
+        <f>((D62-D61)/(A62-A61))*(A62/D62)</f>
+        <v>0.42291110654896336</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -9311,15 +9230,15 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" ref="B66:B70" si="10">D32</f>
+        <f t="shared" ref="B66:B70" si="6">D32</f>
         <v>13.710000000000001</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="11">D37</f>
+        <f t="shared" ref="C66:C70" si="7">D37</f>
         <v>8.9700000000000006</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D70" si="12">D42</f>
+        <f t="shared" ref="D66:D70" si="8">D42</f>
         <v>28.300000000000001</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -9337,28 +9256,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>17.289999999999999</v>
       </c>
       <c r="C67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9.3100000000000005</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>29.93</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25222465353756379</v>
+        <f>((B67-B66)/(A67-A66))*(A67/B67)</f>
+        <v>0.25882012724117975</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="4"/>
-        <v>0.20758082497212932</v>
+        <f>((C67-C66)/(A67-A66))*(A67/C67)</f>
+        <v>0.045649838882921574</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="5"/>
-        <v>0.21151943462897527</v>
+        <f>((D67-D66)/(A67-A66))*(A67/D67)</f>
+        <v>0.068075509522218469</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -9366,28 +9285,28 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>22.579999999999998</v>
       </c>
       <c r="C68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11.380000000000001</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>32.590000000000003</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="3"/>
-        <v>0.32648930017351069</v>
+        <f>((B68-B67)/(A68-A67))*(A68/B68)</f>
+        <v>0.3123708296427517</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="4"/>
-        <v>0.30558539205155749</v>
+        <f>((C68-C67)/(A68-A67))*(A68/C68)</f>
+        <v>0.24253075571177507</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="5"/>
-        <v>0.27221850985633145</v>
+        <f>((D68-D67)/(A68-A67))*(A68/D68)</f>
+        <v>0.10882683849851707</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -9395,28 +9314,28 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>46.789999999999999</v>
       </c>
       <c r="C69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>21.370000000000001</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>36.579999999999998</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="3"/>
-        <v>0.41443755535872456</v>
+        <f>((B69-B68)/(A69-A68))*(A69/B69)</f>
+        <v>0.64677281470399661</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="4"/>
-        <v>0.37557117750439367</v>
+        <f>((C69-C68)/(A69-A68))*(A69/C69)</f>
+        <v>0.5843472157229761</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22448603866216627</v>
+        <f>((D69-D68)/(A69-A68))*(A69/D69)</f>
+        <v>0.13634499726626553</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -9424,28 +9343,28 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>81.769999999999996</v>
       </c>
       <c r="C70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>36.719999999999999</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>42.340000000000003</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="3"/>
-        <v>0.87379782004701856</v>
+        <f>((B70-B69)/(A70-A69))*(A70/B70)</f>
+        <v>0.8555705026293261</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="4"/>
-        <v>0.85914833879270003</v>
+        <f>((C70-C69)/(A70-A69))*(A70/C70)</f>
+        <v>0.83605664488017406</v>
       </c>
       <c r="G70" s="3">
-        <f>(D70/D69)/(A70/A69)</f>
-        <v>0.5787315472936031</v>
+        <f>((D70-D69)/(A70-A69))*(A70/D70)</f>
+        <v>0.27208313651393506</v>
       </c>
     </row>
   </sheetData>
@@ -9460,7 +9379,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10140,13 +10059,13 @@
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10155,15 +10074,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" ref="B50:B54" si="13">D2</f>
+        <f t="shared" ref="B50:B54" si="9">D2</f>
         <v>8.0199999999999996</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:C52" si="14">D7</f>
+        <f t="shared" ref="C50:C52" si="10">D7</f>
         <v>4.3399999999999999</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ref="D50:D54" si="15">D12</f>
+        <f t="shared" ref="D50:D54" si="11">D12</f>
         <v>30.84</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -10181,28 +10100,28 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>26.100000000000001</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>13.359999999999999</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>35.979999999999997</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" ref="E51:E70" si="16">(B51/B50)/(A51/A50)</f>
-        <v>0.65087281795511231</v>
+        <f>((B51-B50)/(A51-A50))*(A51/B51)</f>
+        <v>0.86590038314176243</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" ref="F51:F70" si="17">(C51/C50)/(A51/A50)</f>
-        <v>0.61566820276497691</v>
+        <f>((C51-C50)/(A51-A50))*(A51/C51)</f>
+        <v>0.84393712574850299</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ref="G51:G70" si="18">(D51/D50)/(A51/A50)</f>
-        <v>0.23333333333333331</v>
+        <f>((D51-D50)/(A51-A50))*(A51/D51)</f>
+        <v>0.17857142857142846</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -10210,28 +10129,28 @@
         <v>20</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>100.56999999999999</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>46.380000000000003</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>56.890000000000001</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="16"/>
-        <v>0.96331417624521065</v>
+        <f>((B52-B51)/(A52-A51))*(A52/B52)</f>
+        <v>0.98730569089523068</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="17"/>
-        <v>0.8678892215568863</v>
+        <f>((C52-C51)/(A52-A51))*(A52/C52)</f>
+        <v>0.9492597383929855</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="18"/>
-        <v>0.39528904947192889</v>
+        <f>((D52-D51)/(A52-A51))*(A52/D52)</f>
+        <v>0.49006855334856753</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -10239,28 +10158,28 @@
         <v>100</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>516.97000000000003</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C54" si="19">D10</f>
+        <f t="shared" ref="C53:C54" si="12">D10</f>
         <v>243.68000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>228.63</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="16"/>
-        <v>1.0280799443173909</v>
+        <f>((B53-B52)/(A53-A52))*(A53/B53)</f>
+        <v>1.0068282492214249</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="17"/>
-        <v>1.0507977576541614</v>
+        <f>((C53-C52)/(A53-A52))*(A53/C53)</f>
+        <v>1.0120855219960603</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="18"/>
-        <v>0.80376164528036553</v>
+        <f>((D53-D52)/(A53-A52))*(A53/D53)</f>
+        <v>0.9389625158553121</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -10268,28 +10187,28 @@
         <v>200</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1009.01</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>506.67000000000002</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>425.89699999999999</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9758883494206626</v>
+        <f>((B54-B53)/(A54-A53))*(A54/B54)</f>
+        <v>0.97529261355189734</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="17"/>
-        <v>1.0396216349310572</v>
+        <f>((C54-C53)/(A54-A53))*(A54/C54)</f>
+        <v>1.0381115913711094</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="18"/>
-        <v>0.93141101342780908</v>
+        <f>((D54-D53)/(A54-A53))*(A54/D54)</f>
+        <v>0.92636012932704392</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -10324,13 +10243,13 @@
       <c r="D57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10339,15 +10258,15 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B62" si="20">D17</f>
+        <f t="shared" ref="B58:B62" si="13">D17</f>
         <v>8.8900000000000006</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ref="C58:C62" si="21">D22</f>
+        <f t="shared" ref="C58:C62" si="14">D22</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:D62" si="22">D27</f>
+        <f t="shared" ref="D58:D62" si="15">D27</f>
         <v>26.09</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -10365,28 +10284,28 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>18.059999999999999</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>7.0599999999999996</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>38.119999999999997</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="16"/>
-        <v>0.40629921259842516</v>
+        <f>((B59-B58)/(A59-A58))*(A59/B59)</f>
+        <v>0.63468992248062006</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="17"/>
-        <v>0.30629067245119301</v>
+        <f>((C59-C58)/(A59-A58))*(A59/C59)</f>
+        <v>0.43378186968838517</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="18"/>
-        <v>0.29221924108853969</v>
+        <f>((D59-D58)/(A59-A58))*(A59/D59)</f>
+        <v>0.39447796432318988</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -10394,28 +10313,28 @@
         <v>20</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>49.82</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>10.25</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>67.359999999999999</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="16"/>
-        <v>0.68964562569213739</v>
+        <f>((B60-B59)/(A60-A59))*(A60/B60)</f>
+        <v>0.84999330924662109</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="17"/>
-        <v>0.36296033994334281</v>
+        <f>((C60-C59)/(A60-A59))*(A60/C60)</f>
+        <v>0.41495934959349601</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="18"/>
-        <v>0.44176285414480593</v>
+        <f>((D60-D59)/(A60-A59))*(A60/D60)</f>
+        <v>0.57878068091844814</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -10423,28 +10342,28 @@
         <v>100</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>204.75999999999999</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>44.840000000000003</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>127.29000000000001</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="16"/>
-        <v>0.82199919710959457</v>
+        <f>((B61-B60)/(A61-A60))*(A61/B61)</f>
+        <v>0.94586344989255711</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="17"/>
-        <v>0.87492682926829279</v>
+        <f>((C61-C60)/(A61-A60))*(A61/C61)</f>
+        <v>0.96426181980374681</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="18"/>
-        <v>0.37793942992874113</v>
+        <f>((D61-D60)/(A61-A60))*(A61/D61)</f>
+        <v>0.5885183439390369</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -10452,28 +10371,28 @@
         <v>200</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>417.10000000000002</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>89.969999999999999</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>225.02000000000001</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="16"/>
-        <v>1.0185094745067398</v>
+        <f>((B62-B61)/(A62-A61))*(A62/B62)</f>
+        <v>1.018173099976025</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="17"/>
-        <v>1.0032337198929526</v>
+        <f>((C62-C61)/(A62-A61))*(A62/C62)</f>
+        <v>1.0032232966544403</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="18"/>
-        <v>0.88388718673894262</v>
+        <f>((D62-D61)/(A62-A61))*(A62/D62)</f>
+        <v>0.86863389920895917</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -10509,13 +10428,13 @@
       <c r="D65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10524,15 +10443,15 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" ref="B66:B70" si="23">D32</f>
+        <f t="shared" ref="B66:B70" si="16">D32</f>
         <v>10.18</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" ref="C66:C70" si="24">D37</f>
+        <f t="shared" ref="C66:C70" si="17">D37</f>
         <v>7.1500000000000004</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D70" si="25">D42</f>
+        <f t="shared" ref="D66:D70" si="18">D42</f>
         <v>75.829999999999998</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -10550,28 +10469,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>11.51</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>7.3899999999999997</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>16.510000000000002</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="16"/>
-        <v>0.22612966601178783</v>
+        <f>((B67-B66)/(A67-A66))*(A67/B67)</f>
+        <v>0.14443961772371852</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="17"/>
-        <v>0.20671328671328668</v>
+        <f>((C67-C66)/(A67-A66))*(A67/C67)</f>
+        <v>0.040595399188091907</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="18"/>
-        <v>4.3544771198734018e-002</v>
+        <f>((D67-D66)/(A67-A66))*(A67/D67)</f>
+        <v>-4.4912174439733485</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -10579,28 +10498,28 @@
         <v>20</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>12.710000000000001</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>7.0300000000000002</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>17.129999999999999</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="16"/>
-        <v>0.27606429192006954</v>
+        <f>((B68-B67)/(A68-A67))*(A68/B68)</f>
+        <v>0.12588512981904024</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="17"/>
-        <v>0.23782138024357241</v>
+        <f>((C68-C67)/(A68-A67))*(A68/C68)</f>
+        <v>-0.06827880512091028</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="18"/>
-        <v>0.25938824954572981</v>
+        <f>((D68-D67)/(A68-A67))*(A68/D68)</f>
+        <v>0.048258416034247707</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -10608,28 +10527,28 @@
         <v>100</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>12.68</v>
       </c>
       <c r="C69" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>6.9400000000000004</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>15.59</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="16"/>
-        <v>0.1995279307631786</v>
+        <f>((B69-B68)/(A69-A68))*(A69/B69)</f>
+        <v>-0.0029574132492114686</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="17"/>
-        <v>0.19743954480796586</v>
+        <f>((C69-C68)/(A69-A68))*(A69/C69)</f>
+        <v>-0.016210374639769425</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="18"/>
-        <v>0.18201984821949796</v>
+        <f>((D69-D68)/(A69-A68))*(A69/D69)</f>
+        <v>-0.12347658755612566</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -10637,28 +10556,28 @@
         <v>200</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>12.67</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>7.1200000000000001</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>17.760000000000002</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="16"/>
-        <v>0.49960567823343849</v>
+        <f>((B70-B69)/(A70-A69))*(A70/B70)</f>
+        <v>-0.0015785319652722631</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="17"/>
-        <v>0.51296829971181557</v>
+        <f>((C70-C69)/(A70-A69))*(A70/C70)</f>
+        <v>0.050561797752808904</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="18"/>
-        <v>0.56959589480436179</v>
+        <f>((D70-D69)/(A70-A69))*(A70/D70)</f>
+        <v>0.24436936936936957</v>
       </c>
     </row>
   </sheetData>
